--- a/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_001.xlsx
+++ b/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_001.xlsx
@@ -31,336 +31,336 @@
     <t>System</t>
   </si>
   <si>
+    <t>(295003AA2.03) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery status</t>
+  </si>
+  <si>
+    <t>(600000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 24) PLANT FIRE ON SITE: (CFR: 41.8 / 41.10 / 45.3) Firefighting methods for each type of fire</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(295025EK3.10) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295018AK2.05) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) RHR/LPCI</t>
+  </si>
+  <si>
+    <t>(295005AA1.10) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) Recirculation flow control system</t>
+  </si>
+  <si>
+    <t>(295016AA2.03) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295004AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Battery capacity</t>
+  </si>
+  <si>
+    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295037EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Boron injection</t>
+  </si>
+  <si>
     <t>(295026EK2.10) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) LPCS</t>
   </si>
   <si>
-    <t>(295005AA2.06) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Feedwater temperature</t>
-  </si>
-  <si>
-    <t>(600000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Steps called out in the site fire protection plant, fire protection system manual, and fire zone manual</t>
-  </si>
-  <si>
-    <t>(295021AA1.05) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) Reactor recirculation</t>
-  </si>
-  <si>
-    <t>(295023AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 23) REFUELING ACCIDENTS:(CFR: 41.8 to 41.10) Inadvertent criticality</t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295018AK2.03) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) Reactor water cleanup system</t>
-  </si>
-  <si>
-    <t>(295037EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Standby liquid control system tank level</t>
-  </si>
-  <si>
-    <t>(700000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Actions contained in abnormal operating procedure for voltage and grid disturbances</t>
-  </si>
-  <si>
-    <t>(295004AA1.03) Ability to operate and/or monitor the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.7 / 45.6) AC electrical distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295016AA1.14) Ability to operate and/or monitor the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.7 / 45.6) </t>
-  </si>
-  <si>
-    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295001AK2.01) Knowledge of the relationship between the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION and the following systems or components: (CFR: 41.7 / 45.8) Recirculation system</t>
-  </si>
-  <si>
-    <t>(295038EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Total number of curies released or release rate/duration</t>
-  </si>
-  <si>
-    <t>(295006AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 6) SCRAM: (CFR: 41.5 / 45.6) Reactor power response</t>
-  </si>
-  <si>
-    <t>(295024EA1.08) Ability to operate and/or monitor the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) ADS</t>
-  </si>
-  <si>
-    <t>(295027EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Equipment environmental qualifications</t>
-  </si>
-  <si>
-    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295025EK2.08) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(295031EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Adequate core cooling</t>
-  </si>
-  <si>
-    <t>(295014AA1.02) Ability to operate and/or monitor the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.7 / 45.6) Recirculation flow control system</t>
-  </si>
-  <si>
-    <t>(295034EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.8 to 41.10) Radiation releases</t>
-  </si>
-  <si>
-    <t>(500000) (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION (G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
-  </si>
-  <si>
-    <t>(295010AK2.08) Knowledge of the relationship between the (APE 10) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Plant ventilation systems</t>
-  </si>
-  <si>
-    <t>(295035EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Radiation release rate</t>
-  </si>
-  <si>
-    <t>(295033EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.5 / 45.6) Reactor shutdown/SCRAM</t>
+    <t xml:space="preserve">(295019AA1.03) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) Air compressors </t>
+  </si>
+  <si>
+    <t>(295027EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295031EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.8 to 41.10) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+  </si>
+  <si>
+    <t>(295024EK3.08) Knowledge of the reasons for the following responses or actions as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Containment spray</t>
+  </si>
+  <si>
+    <t>(295021AK2.04) Knowledge of the relationship between the (APE 21) LOSS OF SHUTDOWN COOLING and the following systems or components: (CFR: 41.7 / 45.8) Component cooling water systems</t>
+  </si>
+  <si>
+    <t>(295023AA1.08) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) Containment building ventilation (Mark III)</t>
+  </si>
+  <si>
+    <t>(295001AA2.07) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
+  </si>
+  <si>
+    <t>(295006AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Pressure control</t>
+  </si>
+  <si>
+    <t>(295013AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.5 / 45.6) Suppression pool cooling operation</t>
+  </si>
+  <si>
+    <t>(295010AK2.07) Knowledge of the relationship between the (APE 10) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Component cooling water</t>
+  </si>
+  <si>
+    <t>(295020AA1.03) Ability to operate and/or monitor the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.7 / 45.6) Containment ventilation system</t>
+  </si>
+  <si>
+    <t>(295011AA2.04) Ability to determine and/or interpret the following as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) System/component operating limitations</t>
+  </si>
+  <si>
+    <t>(295032EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.8 to 41.10) Radiation releases</t>
+  </si>
+  <si>
+    <t>(295009) (APE 9) LOW REACTOR WATER LEVEL (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(239002K2.01) (SF3 SRV) SAFETY RELIEF VALVES Knowledge of electrical power supplies to the following: (CFR: 41.7) SRV solenoids</t>
+  </si>
+  <si>
+    <t>(261000A4.05) Ability to manually operate and/or monitor the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Drywell to suppression chamber/torus differential pressure (Mark I and II)</t>
+  </si>
+  <si>
+    <t>(262002A2.01) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal voltage</t>
+  </si>
+  <si>
+    <t>(209002A3.08) Ability to monitor automatic operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Pump trip</t>
+  </si>
+  <si>
+    <t>(212000K4.07) Knowledge of (SF7 RPS) REACTOR PROTECTION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Manual SCRAM</t>
+  </si>
+  <si>
+    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
+  </si>
+  <si>
+    <t>(262001K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Breaker malfunctions</t>
+  </si>
+  <si>
+    <t>(264000K3.02) Knowledge of the effect that a loss or malfunction of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(300000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.5 / 45.5) Instrument air supply pressure</t>
+  </si>
+  <si>
+    <t>(211000K1.11) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Redundant reactivity control system</t>
+  </si>
+  <si>
+    <t>(215003K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.5 / 45.3) Changing detector position</t>
+  </si>
+  <si>
+    <t>(259002K2.03) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Feedwater controllers</t>
   </si>
   <si>
     <t>(209001A4.01) Ability to manually operate and/or monitor the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Core spray pump</t>
   </si>
   <si>
-    <t>(263000K4.04) Knowledge of (SF6 DC) DC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Battery charging methods</t>
-  </si>
-  <si>
-    <t>(215003K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel and internals</t>
-  </si>
-  <si>
-    <t>(203000K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.7 / 45.7) DC electrical power</t>
-  </si>
-  <si>
-    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
-  </si>
-  <si>
-    <t>(264000A3.05) Ability to monitor automatic operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.7 / 45.7) Load shedding and sequencing</t>
-  </si>
-  <si>
-    <t>(209002A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) System pressure</t>
-  </si>
-  <si>
-    <t>(261000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.5 / 45.3) Secondary containment pressure changes</t>
-  </si>
-  <si>
-    <t>(205000K3.02) Knowledge of the effect that a loss or malfunction of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
-  </si>
-  <si>
-    <t>(223002A2.13) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Leak detection system failures</t>
-  </si>
-  <si>
-    <t>(262001K2.02) (SF6 AC) AC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) AC breaker control power</t>
-  </si>
-  <si>
-    <t>(262002A4.01) Ability to manually operate and/or monitor the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) in the control room: (CFR: 41.7 / 45.5 to 45.8) Transfer of power sources</t>
-  </si>
-  <si>
-    <t>(217000K4.13) Knowledge of (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Turbine speed control</t>
-  </si>
-  <si>
-    <t>(212000K1.09) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 RPS) REACTOR PROTECTION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant process computer/parameter display systems</t>
-  </si>
-  <si>
-    <t>(215004K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.7 / 45.7) RPS</t>
-  </si>
-  <si>
-    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (291002K1.25) SENSORS AND DETECTORS (CFR: 41.7) (RADIATION DETECTION) Effects of core voiding on neutron detection</t>
-  </si>
-  <si>
-    <t>(259002A3.07) Ability to monitor automatic operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.7 / 45.7) FWRV lockup</t>
-  </si>
-  <si>
-    <t>(239002A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.5 / 45.5) Reactor water level</t>
-  </si>
-  <si>
-    <t>(300000K5.15) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.5 / 45.3) High moisture content in instrument air</t>
+    <t>(205000A2.09) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Reactor low water level</t>
+  </si>
+  <si>
+    <t>(223002A3.05) Ability to monitor automatic operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.7 / 45.7) Group isolations</t>
+  </si>
+  <si>
+    <t>(215004K4.07) Knowledge of (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) SRMS channel bypass</t>
+  </si>
+  <si>
+    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (291002K1.23) SENSORS AND DETECTORS (CFR: 41.7) (RADIATION DETECTION) Theory and operation of ion chambers, Geiger-Mueller tubes, and scintillation detectors</t>
+  </si>
+  <si>
+    <t>(263000K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Grounds</t>
   </si>
   <si>
     <t>(218000K3.01) Knowledge of the effect that a loss or malfunction of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
   </si>
   <si>
-    <t>(400000A2.16) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of cooling to alternate decay heat removal system</t>
-  </si>
-  <si>
-    <t>(211000K2.01) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) SLCS pumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(209001A4.02) Ability to manually operate and/or monitor the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Valves </t>
-  </si>
-  <si>
-    <t>(263000K4.05) Knowledge of (SF6 DC) DC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Coping time</t>
-  </si>
-  <si>
-    <t>(215003K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Display control system</t>
-  </si>
-  <si>
-    <t>(203000K6.10) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.7 / 45.7) Component cooling water systems</t>
-  </si>
-  <si>
-    <t>(230000A2.13) Ability to (a) predict the impacts of the following on the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High suppression pool level</t>
-  </si>
-  <si>
-    <t>(215001K2.02) (SF7 TIP) TRAVERSING IN CORE PROBE Knowledge of electrical power supplies to the following: (CFR: 41.7) Ball valves (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(223001A4.18) Ability to manually operate and/or monitor the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES in the control room: (CFR: 41.7 / 45.5 to 45.8) Containment spray system (Mark III)</t>
-  </si>
-  <si>
-    <t>(286000K4.09) Knowledge of (SF8 FPS) FIRE PROTECTION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.5 / 41.7 / 45.3 to 45.8) Fire detection and alarm</t>
-  </si>
-  <si>
-    <t>(239003K1.09) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Condensate system</t>
-  </si>
-  <si>
-    <t>(234000K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 FH) FUEL HANDLING: (CFR: 41.7 / 45.7) RCIS</t>
-  </si>
-  <si>
-    <t>(216000) (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION (G2.4.34) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities outside the main control room during an emergency (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(245000A3.05) Ability to monitor automatic operation of the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS including: (CFR: 41.7 / 45.7) Control valve operation</t>
-  </si>
-  <si>
-    <t>(239001A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM including: (CFR: 41.5 / 45.5) Offgas process radiation</t>
-  </si>
-  <si>
-    <t>(510001K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 CWS*) CIRCULATING WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Pipe rupture</t>
-  </si>
-  <si>
-    <t>(256000K3.20) Knowledge of the effect that a loss or malfunction of the (SF2 CDS) CONDENSATE SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Oxygen injection system</t>
-  </si>
-  <si>
-    <t>(G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+    <t>(215005A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.5 / 45.5) APRM (gain adjustment factor)</t>
+  </si>
+  <si>
+    <t>(217000K1.15) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Feedwater system</t>
+  </si>
+  <si>
+    <t>(203000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.5 / 45.3) NPSH limits</t>
+  </si>
+  <si>
+    <t>(239002K4.01) Knowledge of (SF3 SRV) SAFETY RELIEF VALVES design features and/or interlocks that provide for the following: (CFR: 41.7) Ensures that only one or two safety/relief valves reopen following the initial portion of a reactor isolation event (low-low set logic)</t>
+  </si>
+  <si>
+    <t>(261000A4.03) Ability to manually operate and/or monitor the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Fan</t>
+  </si>
+  <si>
+    <t>(262002A2.03) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Frequency malfunctions in the system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(209002A3.02) Ability to monitor automatic operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Pump start </t>
+  </si>
+  <si>
+    <t>(239001K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant process computer/parameter display systems</t>
+  </si>
+  <si>
+    <t>(290003K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 CRV) CONTROL ROOM VENTILATION: (CFR: 41.5 / 45.3) Control of airborne contamination (e.g., radiological, toxic gas, smoke)</t>
+  </si>
+  <si>
+    <t>(202002K2.02) (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Hydraulic power unit</t>
+  </si>
+  <si>
+    <t>(259001A4.01) Ability to manually operate and/or monitor the (SF2 FWS) FEEDWATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System flow</t>
+  </si>
+  <si>
+    <t>(239003A2.11) Ability to (a) predict the impacts of the following on the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) High reactor pressure</t>
+  </si>
+  <si>
+    <t>(223001A3.06) Ability to monitor automatic operation of the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES including: (CFR: 41.7 / 45.7) Drywell/suppression chamber differential pressure (Mark I, II)</t>
+  </si>
+  <si>
+    <t>(245000K4.09) Knowledge of (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS design features and/or interlocks that provide for the following: (CFR: 41.7) Turbine control</t>
+  </si>
+  <si>
+    <t>(510001) (SF8 CWS*) CIRCULATING WATER SYSTEM (G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(201003K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM: (CFR: 41.1-6 / 45.1-6) Control rod drive hydraulic system</t>
+  </si>
+  <si>
+    <t>(204000K3.07) Knowledge of the effect that a loss or malfunction of the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Drywell temperature</t>
+  </si>
+  <si>
+    <t>(290001A1.11) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 SC) SECONDARY CONTAINMENT including: (CFR: 41.5 / 45.5) System indicating lights and alarms</t>
+  </si>
+  <si>
+    <t>(G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
   </si>
   <si>
     <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
   </si>
   <si>
-    <t>(G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+    <t>(G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.39) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities in emergency plan implementing procedures (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>(292005K1.04) CONTROL RODS (CFR: 41.1) Predict direction of change in reactor power for a change in control rod position</t>
+  </si>
+  <si>
+    <t>(292002K1.08) NEUTRON LIFE CYCLE (CFR: 41.1) Define effective multiplication factor (K-effective) and discuss its relationship to the state of a reactor (critical, subcritical, and supercritical)</t>
+  </si>
+  <si>
+    <t>(292006K1.08) FISSION PRODUCT POISONS (CFR: 41.1) Describe the effects that xenon concentration has on flux shape and control rod patterns</t>
+  </si>
+  <si>
+    <t>(293005K1.03) THERMODYNAMIC CYCLES (CFR: 41.14) Describe the steam quality/moisture effects on turbine integrity and efficiency</t>
+  </si>
+  <si>
+    <t>(293003K1.09) STEAM (CFR: 41.14) Define the following term: Saturated vapor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(293007K1.09) HEAT TRANSFER (CFR: 41.14) (CONDENSER APPLICATIONS OF HEAT TRANSFER) Discuss operational implications of condensate </t>
+  </si>
+  <si>
+    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
+  </si>
+  <si>
+    <t>(600000AA2.15) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Requirements for establishing a fire watch (SRO Only)</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295025EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(295005AA2.07) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295007) (APE 7) HIGH REACTOR PRESSURE (G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295008AA2.02) Ability to determine and/or interpret the following as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Steam flow/feedflow mismatch</t>
+  </si>
+  <si>
+    <t>(295002) (APE 2) LOSS OF MAIN CONDENSER VACUUM (G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+  </si>
+  <si>
+    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(400000A2.13) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) </t>
+  </si>
+  <si>
+    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(264000A2.09) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of safety bus</t>
+  </si>
+  <si>
+    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(201001A2.10) Ability to (a) predict the impacts of the following on the (SF1 CRDH) CRD HYDRAULIC SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.2 / 41.5-7 / 41.10 / 41.12-13 / 45.1-6) Low HCU accumulator pressure or high-level</t>
+  </si>
+  <si>
+    <t>(290002) (SF4 RVI) REACTOR VESSEL INTERNALS (G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(241000A2.24) Ability to (a) predict the impacts of the following on the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Turbine high differential expansion</t>
+  </si>
+  <si>
+    <t>(G2.1.6) CONDUCT OF OPERATIONS Ability to manage the control room crew during plant transients (SRO Only) (CFR: 43.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.45) EQUIPMENT CONTROL Ability to determine or interpret technical specifications with action statements of greater than 1 hour (SRO Only) (CFR: 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
   </si>
   <si>
     <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
   </si>
   <si>
-    <t>(G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(292006K1.06) FISSION PRODUCT POISONS (CFR: 41.1) Describe the following processes and state their effect on reactor operations: --Transient xenon</t>
-  </si>
-  <si>
-    <t>(292005K1.05) CONTROL RODS (CFR: 41.1) Define rod density</t>
-  </si>
-  <si>
-    <t>(292008K1.18) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (POWER OPERATION) Describe the means by which reactor power will be increased to rated power</t>
-  </si>
-  <si>
-    <t>(293005K1.03) THERMODYNAMIC CYCLES (CFR: 41.14) Describe the steam quality/moisture effects on turbine integrity and efficiency</t>
-  </si>
-  <si>
-    <t>(293004K1.14) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Explain the condensing process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(293007K1.09) HEAT TRANSFER (CFR: 41.14) (CONDENSER APPLICATIONS OF HEAT TRANSFER) Discuss operational implications of condensate </t>
-  </si>
-  <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t>(295005AA2.07) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295021AA2.01) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Containment/drywell temperature</t>
-  </si>
-  <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295030EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) </t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295022) (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS (G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295012AA2.04) Ability to determine and/or interpret the following as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) System/component operating limitations</t>
-  </si>
-  <si>
-    <t>(295009) (APE 9) LOW REACTOR WATER LEVEL (G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
-  </si>
-  <si>
-    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(264000A2.13) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of starting air</t>
-  </si>
-  <si>
-    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(261000A2.11) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High containment pressure</t>
-  </si>
-  <si>
-    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(271000A2.03) Ability to (a) predict the impacts of the following on the (SF9 OG) OFFGAS SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6 / 45.8) Main steam line high radiation</t>
-  </si>
-  <si>
-    <t>(201005) (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (G2.2.25) EQUIPMENT CONTROL Knowledge of the bases in technical specifications for limiting conditions for operation and safety limits (SRO Only) (CFR: 43.2)</t>
-  </si>
-  <si>
-    <t>(219000A2.06) Ability to (a) predict the impacts of the following on the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) DC electrical failures</t>
-  </si>
-  <si>
-    <t>(G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.45) EQUIPMENT CONTROL Ability to determine or interpret technical specifications with action statements of greater than 1 hour (SRO Only) (CFR: 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
-  </si>
-  <si>
     <t>(G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
   </si>
   <si>
-    <t>(G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+    <t>(G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>K3</t>
   </si>
   <si>
     <t>K2</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>K3</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
+    <t>A3</t>
+  </si>
+  <si>
     <t>K4</t>
   </si>
   <si>
     <t>K6</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>K5</t>
   </si>
   <si>
@@ -385,13 +385,52 @@
     <t>T</t>
   </si>
   <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
     <t>295026</t>
   </si>
   <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>600000</t>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295024</t>
   </si>
   <si>
     <t>295021</t>
@@ -400,202 +439,163 @@
     <t>295023</t>
   </si>
   <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
     <t>295001</t>
   </si>
   <si>
-    <t>295038</t>
-  </si>
-  <si>
     <t>295006</t>
   </si>
   <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>500000</t>
+    <t>295013</t>
   </si>
   <si>
     <t>295010</t>
   </si>
   <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>295033</t>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>295011</t>
+  </si>
+  <si>
+    <t>295032</t>
+  </si>
+  <si>
+    <t>295009</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>259002</t>
   </si>
   <si>
     <t>209001</t>
   </si>
   <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
     <t>263000</t>
   </si>
   <si>
-    <t>215003</t>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>217000</t>
   </si>
   <si>
     <t>203000</t>
   </si>
   <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>215001</t>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>290003</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>239003</t>
   </si>
   <si>
     <t>223001</t>
   </si>
   <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>239003</t>
-  </si>
-  <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>216000</t>
-  </si>
-  <si>
     <t>245000</t>
   </si>
   <si>
-    <t>239001</t>
-  </si>
-  <si>
     <t>510001</t>
   </si>
   <si>
-    <t>256000</t>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>292002</t>
   </si>
   <si>
     <t>292006</t>
   </si>
   <si>
-    <t>292005</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
     <t>293005</t>
   </si>
   <si>
-    <t>293004</t>
+    <t>293003</t>
   </si>
   <si>
     <t>293007</t>
   </si>
   <si>
-    <t>295022</t>
-  </si>
-  <si>
-    <t>295012</t>
-  </si>
-  <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>219000</t>
+    <t>295007</t>
+  </si>
+  <si>
+    <t>295008</t>
+  </si>
+  <si>
+    <t>295002</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>290002</t>
+  </si>
+  <si>
+    <t>241000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1565,7 +1565,7 @@
         <v>3.7</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,7 +1579,7 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D37" t="s">
         <v>106</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1616,7 +1616,7 @@
         <v>3.1</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="D41" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D47" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,7 +1766,7 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D48" t="s">
         <v>106</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D49" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="D53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,7 +1868,7 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="D54" t="s">
         <v>106</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="D55" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="D56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1990,7 +1990,7 @@
         <v>3.2</v>
       </c>
       <c r="D61" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D62" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D63" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="D64" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D78" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="D79" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="D80" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D81" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D83" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="D84" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D86" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="D87" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D88" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D89" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="D90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2500,7 +2500,7 @@
         <v>4.3</v>
       </c>
       <c r="D91" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D92" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D93" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="D94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
